--- a/general_mills/final_statements_standardized/Consolidated Statements Of Earnings.xlsx
+++ b/general_mills/final_statements_standardized/Consolidated Statements Of Earnings.xlsx
@@ -37,49 +37,49 @@
     <t>Net Sales</t>
   </si>
   <si>
-    <t>Cost of Sales</t>
-  </si>
-  <si>
-    <t>Selling, General, and Administrative Expenses</t>
-  </si>
-  <si>
-    <t>Restructuring, Impairment, and Other Exit Costs</t>
+    <t>Cost Of Sales</t>
+  </si>
+  <si>
+    <t>Selling, General, And Administrative Expenses</t>
+  </si>
+  <si>
+    <t>Restructuring, Impairment, And Other Exit Costs</t>
   </si>
   <si>
     <t>Divestitures (Gain) Loss, Net</t>
   </si>
   <si>
+    <t>Benefit Plan Non-Service Income</t>
+  </si>
+  <si>
     <t>Operating Profit</t>
   </si>
   <si>
     <t>Interest, Net</t>
   </si>
   <si>
-    <t>Benefit Plan Non-Service Income</t>
-  </si>
-  <si>
-    <t>After-Tax Earnings from Joint Ventures</t>
-  </si>
-  <si>
-    <t>Earnings Before Income Taxes and After-Tax Earnings from Joint Ventures</t>
+    <t>After-Tax Earnings From Joint Ventures</t>
+  </si>
+  <si>
+    <t>Earnings Before Income Taxes And After-Tax Earnings From Joint Ventures</t>
   </si>
   <si>
     <t>Income Taxes</t>
   </si>
   <si>
-    <t>Net Earnings Including Noncontrolling Interests</t>
-  </si>
-  <si>
-    <t>Net Earnings Attributable to General Mills</t>
-  </si>
-  <si>
-    <t>Net Earnings Attributable to Noncontrolling Interests</t>
-  </si>
-  <si>
-    <t>Earnings Per Share - Basic</t>
-  </si>
-  <si>
-    <t>Earnings Per Share - Diluted</t>
+    <t>Net Earnings, Including Earnings Attributable To Noncontrolling Interests</t>
+  </si>
+  <si>
+    <t>Net Earnings Attributable To General Mills</t>
+  </si>
+  <si>
+    <t>Net Earnings Attributable To Noncontrolling Interests</t>
+  </si>
+  <si>
+    <t>Earnings Per Share — Basic</t>
+  </si>
+  <si>
+    <t>Earnings Per Share — Diluted</t>
   </si>
   <si>
     <t>Dividends Per Share</t>
@@ -571,19 +571,19 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>3144.8</v>
+        <v>-132.9</v>
       </c>
       <c r="C7">
-        <v>3475.8</v>
+        <v>-113.4</v>
       </c>
       <c r="D7">
-        <v>3433.8</v>
+        <v>-88.8</v>
       </c>
       <c r="E7">
-        <v>3431.7</v>
+        <v>-75.8</v>
       </c>
       <c r="F7">
-        <v>3304.8</v>
+        <v>-54.4</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -591,19 +591,19 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>420.3</v>
+        <v>3144.8</v>
       </c>
       <c r="C8">
-        <v>379.6</v>
+        <v>3475.8</v>
       </c>
       <c r="D8">
-        <v>382.1</v>
+        <v>3433.8</v>
       </c>
       <c r="E8">
-        <v>479.2</v>
+        <v>3431.7</v>
       </c>
       <c r="F8">
-        <v>524.2</v>
+        <v>3304.8</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -611,19 +611,19 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>-132.9</v>
+        <v>420.3</v>
       </c>
       <c r="C9">
-        <v>-113.4</v>
+        <v>379.6</v>
       </c>
       <c r="D9">
-        <v>-88.8</v>
+        <v>382.1</v>
       </c>
       <c r="E9">
-        <v>-75.8</v>
+        <v>479.2</v>
       </c>
       <c r="F9">
-        <v>-54.4</v>
+        <v>524.2</v>
       </c>
     </row>
     <row r="10" spans="1:6">
